--- a/hhh/毕设脚本2.0.xlsx
+++ b/hhh/毕设脚本2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="脚本" sheetId="2" r:id="rId3"/>
     <sheet name="几个需要注意的点" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,14 +200,118 @@
   </si>
   <si>
     <t>向主人走去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室摄像机，俯视，固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？客厅摄像机？Timeline扫过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室摄像机，俯视，固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头切换第一人称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物战立床边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺床上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟响铃特效？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一人称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家操作第一人称移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一人称切换至场景摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效/音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风铃声？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟铃声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷牙，自来水流声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门把手光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景，切换第一人称，玩家操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +392,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -322,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,23 +451,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,20 +463,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,10 +475,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -400,6 +521,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4420,7 +4544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4455,7 +4579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4681,97 +4805,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B17:Q38"/>
+  <dimension ref="B17:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35:P35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16" width="9" style="23"/>
+    <col min="17" max="17" width="30.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="23"/>
+  </cols>
   <sheetData>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:22" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
+      <c r="R17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="16" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="7">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
         <v>4</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4780,409 +4961,545 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="7">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9">
         <v>5</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9">
         <v>6</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="7">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="9">
         <v>7</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="18" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="7">
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9">
         <v>10</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="7">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="9">
         <v>11</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="8" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="9">
         <v>12</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="9">
         <v>13</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="7">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="9">
         <v>14</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="10" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="9">
         <v>16</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="9">
         <v>17</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="7">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="9">
         <v>18</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="7">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="9">
         <v>19</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-    </row>
-    <row r="33" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="7">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9">
         <v>20</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="7">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="9">
         <v>21</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="9" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="7">
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="9">
         <v>22</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="7">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="2:22" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="9">
         <v>25</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:P23"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:P25"/>
@@ -5193,31 +5510,34 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:P27"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:P35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5233,8 +5553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B17:Q44"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5246,25 +5566,25 @@
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="4" t="s">
         <v>27</v>
       </c>
@@ -5276,21 +5596,21 @@
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
@@ -5299,23 +5619,23 @@
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="16" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
@@ -5324,27 +5644,27 @@
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -5353,143 +5673,143 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>6</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>7</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="18" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>8</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>9</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>10</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
@@ -5498,21 +5818,21 @@
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
       <c r="Q28" s="5" t="s">
         <v>30</v>
       </c>
@@ -5521,67 +5841,67 @@
       <c r="B29" s="3">
         <v>12</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>13</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>14</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="10" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5589,152 +5909,152 @@
       <c r="B32" s="3">
         <v>15</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>16</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>17</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="10"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>18</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
     </row>
     <row r="36" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>19</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
     </row>
     <row r="37" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>20</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="19" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
     </row>
     <row r="38" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>21</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="19" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="9" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5742,43 +6062,43 @@
       <c r="B39" s="3">
         <v>22</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
     </row>
     <row r="40" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>23</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
     </row>
     <row r="41" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
@@ -5787,21 +6107,21 @@
       <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
     </row>
     <row r="42" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
@@ -5810,21 +6130,21 @@
       <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="1"/>
@@ -5836,22 +6156,55 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="H17:K17"/>
@@ -5868,55 +6221,22 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5933,7 +6253,7 @@
   <dimension ref="B4:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:N10"/>
+      <selection activeCell="C8" sqref="C8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5942,435 +6262,438 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C27:N27"/>
     <mergeCell ref="C21:N21"/>
     <mergeCell ref="C10:N10"/>
     <mergeCell ref="C11:N11"/>
@@ -6383,15 +6706,12 @@
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
